--- a/biology/Zoologie/Hyalinobatrachium_fleischmanni/Hyalinobatrachium_fleischmanni.xlsx
+++ b/biology/Zoologie/Hyalinobatrachium_fleischmanni/Hyalinobatrachium_fleischmanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyalinobatrachium fleischmanni est une espèce d'amphibiens, de la famille des Centrolenidae[1]. Elle est ainsi nommée en l'honneur de Carl Fleischmann, son inventeur en 1892[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyalinobatrachium fleischmanni est une espèce d'amphibiens, de la famille des Centrolenidae. Elle est ainsi nommée en l'honneur de Carl Fleischmann, son inventeur en 1892.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Mexique (Guerrero, Veracruz, Oaxaca, Chiapas et Tabasco), en Amérique centrale (Belize, Guatemala, Salvador, Honduras, Nicaragua, Costa Rica et Panama), en Colombie (basses terres de l'ouest, du nord et de la vallée du río Magdalena) et dans le nord-ouest de l'Équateur[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Mexique (Guerrero, Veracruz, Oaxaca, Chiapas et Tabasco), en Amérique centrale (Belize, Guatemala, Salvador, Honduras, Nicaragua, Costa Rica et Panama), en Colombie (basses terres de l'ouest, du nord et de la vallée du río Magdalena) et dans le nord-ouest de l'Équateur,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 19,2 à 25,5 mm et les femelles de 23 à 32 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 19,2 à 25,5 mm et les femelles de 23 à 32 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle « couve » les œufs pour maintenir leur humidité[5].
-Hyalinobatrachium fleischmanni fait partie des « grenouilles de verre », ainsi nommées en raison de leur translucidité. En 2022, cette espèce fait l'objet d'une étude sur la modulation de cette translucidité : elle maintient activement des niveaux élevés de transparence pendant son sommeil diurne, transmettant alors de 34 à 61 % plus de lumière que dans toutes les autres conditions. Elle obtient ce résultat en stockant dans son foie 89 % de ses globules rouges, le plasma ne véhiculant plus que des globules rouges clairsemés ; la concentration en globules rouges du plasma revient à la normale au réveil[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle « couve » les œufs pour maintenir leur humidité.
+Hyalinobatrachium fleischmanni fait partie des « grenouilles de verre », ainsi nommées en raison de leur translucidité. En 2022, cette espèce fait l'objet d'une étude sur la modulation de cette translucidité : elle maintient activement des niveaux élevés de transparence pendant son sommeil diurne, transmettant alors de 34 à 61 % plus de lumière que dans toutes les autres conditions. Elle obtient ce résultat en stockant dans son foie 89 % de ses globules rouges, le plasma ne véhiculant plus que des globules rouges clairsemés ; la concentration en globules rouges du plasma revient à la normale au réveil,.
 </t>
         </is>
       </c>
